--- a/data/trans_orig/P51_1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P51_1-Provincia-trans_orig.xlsx
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6217</v>
+        <v>6090</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1082174034564675</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3320363629799934</v>
+        <v>0.3252433717454067</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6553</v>
+        <v>6348</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02366895873036669</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07654673464657206</v>
+        <v>0.07414800263109926</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4437</v>
+        <v>4508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01270064016263526</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06633863596961635</v>
+        <v>0.06740200220275736</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4824</v>
+        <v>4986</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009922797428868518</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0563470919401412</v>
+        <v>0.0582355943928302</v>
       </c>
     </row>
     <row r="6">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3878</v>
+        <v>5763</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01314163328834498</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05797366950771596</v>
+        <v>0.08616054631812806</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5093</v>
+        <v>4578</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01026733797154248</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0594918788151878</v>
+        <v>0.05346979181174661</v>
       </c>
     </row>
     <row r="7">
@@ -931,7 +931,7 @@
         <v>65159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60613</v>
+        <v>61395</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>66888</v>
@@ -940,7 +940,7 @@
         <v>0.9741577265490198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9061917912168355</v>
+        <v>0.9178722041290199</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -952,7 +952,7 @@
         <v>16699</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12508</v>
+        <v>12635</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>18725</v>
@@ -961,7 +961,7 @@
         <v>0.8917825965435325</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6679636370200066</v>
+        <v>0.6747566282545938</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -973,19 +973,19 @@
         <v>81858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76725</v>
+        <v>76071</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84585</v>
+        <v>84652</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9561409058692223</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8961846661369011</v>
+        <v>0.8885482322495757</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9879889941739849</v>
+        <v>0.9887733339624174</v>
       </c>
     </row>
     <row r="8">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5832</v>
+        <v>6231</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01517952165384021</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04617027479479843</v>
+        <v>0.04932917866379013</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6713</v>
+        <v>7142</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03581136684335753</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1139850744343392</v>
+        <v>0.1212546985337971</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1119,19 +1119,19 @@
         <v>4027</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>986</v>
+        <v>1047</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9652</v>
+        <v>9338</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02174045232321715</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005321984020106224</v>
+        <v>0.005652554296032421</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05211102494144124</v>
+        <v>0.0504171508291834</v>
       </c>
     </row>
     <row r="10">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7170</v>
+        <v>7283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03736356111033615</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1217422180579215</v>
+        <v>0.1236616430377227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8696</v>
+        <v>6950</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01188161949424161</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04695240227831376</v>
+        <v>0.03752353737757551</v>
       </c>
     </row>
     <row r="11">
@@ -1211,19 +1211,19 @@
         <v>3898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8845</v>
+        <v>8748</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0308594139414002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007733088911100704</v>
+        <v>0.007655081945225204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07002481201431265</v>
+        <v>0.06925314589076412</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5504</v>
+        <v>4545</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01746092019195342</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09344967276732213</v>
+        <v>0.07716419030651779</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1253,19 +1253,19 @@
         <v>4926</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1920</v>
+        <v>1889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11722</v>
+        <v>11179</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02659869039696102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01036757318565845</v>
+        <v>0.01019947434758953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.063288070043232</v>
+        <v>0.06035930322855373</v>
       </c>
     </row>
     <row r="12">
@@ -1282,19 +1282,19 @@
         <v>120500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>114975</v>
+        <v>115502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123557</v>
+        <v>124340</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9539610644047596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9102216477723297</v>
+        <v>0.9144000409719486</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9781636424781252</v>
+        <v>0.9843652082865627</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>49</v>
@@ -1303,19 +1303,19 @@
         <v>53560</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47476</v>
+        <v>47289</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>56900</v>
+        <v>56789</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9093641518543529</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8060766278690692</v>
+        <v>0.8029005353851373</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9660844882508687</v>
+        <v>0.9641947440049727</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>168</v>
@@ -1324,19 +1324,19 @@
         <v>174059</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>166147</v>
+        <v>165491</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>179227</v>
+        <v>179128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9397792377855803</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8970603099610085</v>
+        <v>0.8935176715875922</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9676825401151136</v>
+        <v>0.9671483903489432</v>
       </c>
     </row>
     <row r="13">
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4713</v>
+        <v>4722</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01784891472054946</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08995148048942252</v>
+        <v>0.09013539107653971</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5060</v>
+        <v>5098</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05172339701046593</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2654927252601261</v>
+        <v>0.267493893636459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6672</v>
+        <v>6940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02688512816618007</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09337684238830049</v>
+        <v>0.0971230363386502</v>
       </c>
     </row>
     <row r="15">
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5652</v>
+        <v>5030</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01748599366817221</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1078796327586273</v>
+        <v>0.09601296493276082</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3958</v>
+        <v>5298</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01282150404609513</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05539860413932956</v>
+        <v>0.07414652524592502</v>
       </c>
     </row>
     <row r="16">
@@ -1562,19 +1562,19 @@
         <v>4864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10333</v>
+        <v>10187</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09284620128776547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03578355752460335</v>
+        <v>0.03580646205033145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1972301179752159</v>
+        <v>0.1944384607071232</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1596,19 +1596,19 @@
         <v>4864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1864</v>
+        <v>1801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10775</v>
+        <v>9754</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06807894181286647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02608330228933223</v>
+        <v>0.0252044960946745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1507994792367293</v>
+        <v>0.1365091318579185</v>
       </c>
     </row>
     <row r="17">
@@ -1625,19 +1625,19 @@
         <v>45676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39999</v>
+        <v>39764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49563</v>
+        <v>49558</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8718188903235129</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7634651327865127</v>
+        <v>0.7589668956944511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9460034465366227</v>
+        <v>0.9459042163646354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1646,7 +1646,7 @@
         <v>18074</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14000</v>
+        <v>13962</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>19060</v>
@@ -1655,7 +1655,7 @@
         <v>0.9482766029895341</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7345072747398729</v>
+        <v>0.7325061063635402</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1667,19 +1667,19 @@
         <v>63751</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57619</v>
+        <v>57485</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67808</v>
+        <v>67736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8922144259748583</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8063834390831414</v>
+        <v>0.8045089834142108</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9489928552352846</v>
+        <v>0.9479814421026871</v>
       </c>
     </row>
     <row r="18">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4660</v>
+        <v>3943</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007700838649307022</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03883138919591454</v>
+        <v>0.03286063413465956</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8362</v>
+        <v>9065</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03343760143647888</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1498219903541042</v>
+        <v>0.162418460064562</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9974</v>
+        <v>11305</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01587135630140951</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05673297790549826</v>
+        <v>0.06430092278540822</v>
       </c>
     </row>
     <row r="20">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9813</v>
+        <v>9092</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02391197775177122</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08177847182256068</v>
+        <v>0.07577122530694867</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5010</v>
+        <v>4741</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01666088950650155</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08975489446918193</v>
+        <v>0.08493518476053243</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1884,19 +1884,19 @@
         <v>3799</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11343</v>
+        <v>12140</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02161001207742236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005322097582142754</v>
+        <v>0.005369008704789712</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0645188325536519</v>
+        <v>0.06905164650197926</v>
       </c>
     </row>
     <row r="21">
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6396</v>
+        <v>6512</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01514839578229885</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05330445881771988</v>
+        <v>0.05427014793548789</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6616</v>
+        <v>5472</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03192501946270319</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1185397603276316</v>
+        <v>0.09804184221178218</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -1955,19 +1955,19 @@
         <v>3600</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8966</v>
+        <v>8705</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0204743841770688</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005118735896871385</v>
+        <v>0.005054858234905537</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05099660016306561</v>
+        <v>0.04951459555470067</v>
       </c>
     </row>
     <row r="22">
@@ -1984,19 +1984,19 @@
         <v>114386</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>106512</v>
+        <v>106714</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118147</v>
+        <v>118034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9532387878166229</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8876231874944298</v>
+        <v>0.88930247787392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9845863460672231</v>
+        <v>0.9836377037779808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2005,19 +2005,19 @@
         <v>51236</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44947</v>
+        <v>43729</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54866</v>
+        <v>54058</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9179764895943163</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8053025899824612</v>
+        <v>0.7834779073352264</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9830238479905861</v>
+        <v>0.9685382928300574</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>156</v>
@@ -2026,19 +2026,19 @@
         <v>165622</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156468</v>
+        <v>155437</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171125</v>
+        <v>171163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9420442474440993</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8899763815886416</v>
+        <v>0.8841146370199245</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9733442844010141</v>
+        <v>0.9735628722002988</v>
       </c>
     </row>
     <row r="23">
@@ -2130,19 +2130,19 @@
         <v>3209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1010</v>
+        <v>1023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8367</v>
+        <v>8426</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08370728628400569</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02635993523839622</v>
+        <v>0.02668237191757092</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2182767146496699</v>
+        <v>0.2198124912604482</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -2151,19 +2151,19 @@
         <v>3184</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7196</v>
+        <v>7263</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2466851482912661</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07823280032141069</v>
+        <v>0.07804581661954561</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5574068088465307</v>
+        <v>0.5626195799810794</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2172,19 +2172,19 @@
         <v>6393</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2276</v>
+        <v>2165</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12487</v>
+        <v>11930</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1247639604967786</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04441480217477031</v>
+        <v>0.04225323647860049</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2436904158753219</v>
+        <v>0.2328167245922622</v>
       </c>
     </row>
     <row r="25">
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4985</v>
+        <v>4361</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02769758769825815</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1300484692080388</v>
+        <v>0.1137788352150319</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5680</v>
+        <v>5358</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02072013186099583</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1108458905675978</v>
+        <v>0.1045628112199131</v>
       </c>
     </row>
     <row r="26">
@@ -2264,19 +2264,19 @@
         <v>3024</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8108</v>
+        <v>7882</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07888501031771844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02360928654214037</v>
+        <v>0.02382881349895527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2115089706895348</v>
+        <v>0.2056116735302371</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4901</v>
+        <v>4065</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07686057273618913</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3796940739253942</v>
+        <v>0.3149109557550514</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2306,19 +2306,19 @@
         <v>4016</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9437</v>
+        <v>9087</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07837502280637632</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01986659033608412</v>
+        <v>0.02034223816148914</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1841703958723957</v>
+        <v>0.1773317353821706</v>
       </c>
     </row>
     <row r="27">
@@ -2335,19 +2335,19 @@
         <v>31039</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>25546</v>
+        <v>25287</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>35231</v>
+        <v>35016</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8097101157000177</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6664344444887801</v>
+        <v>0.6596539827037564</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9190856925263631</v>
+        <v>0.9134789641472647</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -2356,19 +2356,19 @@
         <v>8732</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4726</v>
+        <v>4710</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11813</v>
+        <v>11780</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6764542789725447</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3661230951685698</v>
+        <v>0.3648567788173978</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9150648130261986</v>
+        <v>0.9125509368329608</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -2377,19 +2377,19 @@
         <v>39771</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>33029</v>
+        <v>33326</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>44868</v>
+        <v>45028</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7761408848358492</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6445631572118232</v>
+        <v>0.6503743967316776</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8756187181205162</v>
+        <v>0.8787308169850894</v>
       </c>
     </row>
     <row r="28">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6767</v>
+        <v>7271</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02972029022167646</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.104805287993437</v>
+        <v>0.1126140791647935</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5937</v>
+        <v>5999</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1032118711603544</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3241267722165387</v>
+        <v>0.3275164960409835</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2523,19 +2523,19 @@
         <v>3809</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8981</v>
+        <v>8842</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04596164663744981</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0114537112859833</v>
+        <v>0.01171846679610845</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1083607444333888</v>
+        <v>0.1066829007223454</v>
       </c>
     </row>
     <row r="30">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6966</v>
+        <v>6103</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0303559833057728</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1078933543911255</v>
+        <v>0.09452679716643808</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6073</v>
+        <v>6567</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0236474278777476</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07327827786860633</v>
+        <v>0.07923730351247854</v>
       </c>
     </row>
     <row r="31">
@@ -2615,19 +2615,19 @@
         <v>2847</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>910</v>
+        <v>853</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7822</v>
+        <v>6958</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04410107831343221</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01408701882236601</v>
+        <v>0.01320833059279858</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1211536038918523</v>
+        <v>0.1077775783392421</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9164</v>
+        <v>7812</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.146630079581848</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5003221803614545</v>
+        <v>0.4265042450864883</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2657,19 +2657,19 @@
         <v>5533</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1913</v>
+        <v>1890</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>12181</v>
+        <v>12382</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06675959281651637</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02307858571104241</v>
+        <v>0.02279948997684765</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1469753810392504</v>
+        <v>0.1493954666248385</v>
       </c>
     </row>
     <row r="32">
@@ -2686,19 +2686,19 @@
         <v>57837</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51465</v>
+        <v>51677</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61665</v>
+        <v>61654</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8958226481591185</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.797121076194324</v>
+        <v>0.8004113684114804</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9551179308796501</v>
+        <v>0.9549487696577695</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -2707,19 +2707,19 @@
         <v>13740</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9126</v>
+        <v>9300</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17325</v>
+        <v>17329</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7501580492577975</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4982457697285153</v>
+        <v>0.5077751446183635</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9459118050133618</v>
+        <v>0.9461385715221117</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>68</v>
@@ -2728,19 +2728,19 @@
         <v>71577</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>64162</v>
+        <v>63136</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77114</v>
+        <v>76598</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8636313326682862</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7741680135821702</v>
+        <v>0.7617907316741604</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.930443379268997</v>
+        <v>0.9242118493523177</v>
       </c>
     </row>
     <row r="33">
@@ -2832,19 +2832,19 @@
         <v>4931</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1265</v>
+        <v>1039</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13187</v>
+        <v>13840</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0369094649361885</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.009468275545376707</v>
+        <v>0.007780736819826241</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.098705970574434</v>
+        <v>0.1035971363634933</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6774</v>
+        <v>6156</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02805367285486792</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09673298273248279</v>
+        <v>0.08790879963123023</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2874,19 +2874,19 @@
         <v>6895</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2885</v>
+        <v>2922</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>15047</v>
+        <v>14792</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03386381031419701</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01416878146178653</v>
+        <v>0.01435103808822905</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07389780529550319</v>
+        <v>0.07264416733665585</v>
       </c>
     </row>
     <row r="35">
@@ -2903,19 +2903,19 @@
         <v>3466</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>983</v>
+        <v>929</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8935</v>
+        <v>8134</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02594151415528015</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.007357589819305782</v>
+        <v>0.006957284884747139</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06688509675420677</v>
+        <v>0.06088644135927841</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2937,19 +2937,19 @@
         <v>3466</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>961</v>
+        <v>997</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8564</v>
+        <v>8709</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01701979470173299</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004718435876917489</v>
+        <v>0.004893973738329224</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0420599623146325</v>
+        <v>0.04276944563883663</v>
       </c>
     </row>
     <row r="36">
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5128</v>
+        <v>5270</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.007649923439672824</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03838789167904015</v>
+        <v>0.03945033136876058</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6945</v>
+        <v>6154</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0288964220526094</v>
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0991701450317954</v>
+        <v>0.08787963186962895</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -3008,19 +3008,19 @@
         <v>3046</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>995</v>
+        <v>968</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8477</v>
+        <v>8198</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01495694872972193</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00488704996208306</v>
+        <v>0.004753084818604185</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04163003041797023</v>
+        <v>0.04026245093144331</v>
       </c>
     </row>
     <row r="37">
@@ -3037,19 +3037,19 @@
         <v>124176</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>114893</v>
+        <v>115358</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>128986</v>
+        <v>129296</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9294990974688585</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8600189085618162</v>
+        <v>0.8634966296682399</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9655057339140011</v>
+        <v>0.9678292373724924</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -3058,19 +3058,19 @@
         <v>66041</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>60201</v>
+        <v>61521</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>69049</v>
+        <v>69046</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9430499050925226</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8596584020308883</v>
+        <v>0.8785115460360946</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9860068113759303</v>
+        <v>0.9859589096226224</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>179</v>
@@ -3079,19 +3079,19 @@
         <v>190216</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>182021</v>
+        <v>181259</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>196812</v>
+        <v>196073</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9341594462543481</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8939107836585527</v>
+        <v>0.8901678623181546</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9665497947411436</v>
+        <v>0.9629232119012632</v>
       </c>
     </row>
     <row r="38">
@@ -3183,19 +3183,19 @@
         <v>7446</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2224</v>
+        <v>3136</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>15053</v>
+        <v>15940</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05854437431777815</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01748427073032941</v>
+        <v>0.02465499802424075</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.118349696390158</v>
+        <v>0.1253305683579228</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -3204,19 +3204,19 @@
         <v>5283</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1866</v>
+        <v>1972</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>13690</v>
+        <v>12858</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.09113629779983493</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03218318239236585</v>
+        <v>0.03401013729066438</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2361566631152541</v>
+        <v>0.2218162722580881</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>10</v>
@@ -3225,19 +3225,19 @@
         <v>12729</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>5428</v>
+        <v>6528</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>21645</v>
+        <v>23113</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0687483302898291</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02931729583417218</v>
+        <v>0.03525653970736739</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1169002044402757</v>
+        <v>0.124828575368076</v>
       </c>
     </row>
     <row r="40">
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4273</v>
+        <v>4286</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006576366048277662</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03359270013436132</v>
+        <v>0.03369555734631626</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4226</v>
+        <v>4799</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00451742191600943</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02282605524726329</v>
+        <v>0.0259190604726625</v>
       </c>
     </row>
     <row r="41">
@@ -3317,19 +3317,19 @@
         <v>6085</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2858</v>
+        <v>2779</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12824</v>
+        <v>13350</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04784569712575754</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02246701359445802</v>
+        <v>0.02185189121310514</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1008292099102864</v>
+        <v>0.10495966346034</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6798</v>
+        <v>7801</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03828297012622355</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1172681726757041</v>
+        <v>0.1345803876754936</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -3359,19 +3359,19 @@
         <v>8305</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3996</v>
+        <v>3993</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>15340</v>
+        <v>16165</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0448517760910046</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02158255928138001</v>
+        <v>0.02156769025545873</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.08285024287314034</v>
+        <v>0.0873031897422412</v>
       </c>
     </row>
     <row r="42">
@@ -3388,19 +3388,19 @@
         <v>112819</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>103332</v>
+        <v>103720</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>119340</v>
+        <v>119113</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.8870335625081867</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8124439727929764</v>
+        <v>0.8154940468817856</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9383019259497178</v>
+        <v>0.9365186122591386</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>47</v>
@@ -3409,19 +3409,19 @@
         <v>50467</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>42524</v>
+        <v>43102</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>54736</v>
+        <v>54622</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8705807320739415</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7335719362841129</v>
+        <v>0.7435337202117376</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9442206318383619</v>
+        <v>0.9422659616977489</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>155</v>
@@ -3430,19 +3430,19 @@
         <v>163286</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>152490</v>
+        <v>151967</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>172441</v>
+        <v>171332</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.8818824717031568</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8235760310747885</v>
+        <v>0.8207531239808811</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9313286832287319</v>
+        <v>0.9253393652987698</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>21281</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>13195</v>
+        <v>13215</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>33621</v>
+        <v>33101</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02918150302859183</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01809302238788786</v>
+        <v>0.01812107128680595</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04610243265859221</v>
+        <v>0.04538930960096984</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>17</v>
@@ -3555,19 +3555,19 @@
         <v>19310</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>11159</v>
+        <v>11285</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>29709</v>
+        <v>30877</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0619472373951571</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03579953240341792</v>
+        <v>0.03620186201060324</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.09530540852171843</v>
+        <v>0.0990541852826826</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>36</v>
@@ -3576,19 +3576,19 @@
         <v>40591</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>28201</v>
+        <v>28820</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56206</v>
+        <v>55479</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03899306463247249</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02709016983216426</v>
+        <v>0.02768548266008598</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.05399237988360804</v>
+        <v>0.05329466050588699</v>
       </c>
     </row>
     <row r="45">
@@ -3605,19 +3605,19 @@
         <v>11959</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>6560</v>
+        <v>5780</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>20514</v>
+        <v>19898</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.01639816732310553</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.008994932324113091</v>
+        <v>0.007925119099332753</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.02812982060391489</v>
+        <v>0.02728509563628007</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -3626,19 +3626,19 @@
         <v>3131</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9248</v>
+        <v>9298</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.01004277032928511</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.002975582385292508</v>
+        <v>0.002983110452557557</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.02966777836024976</v>
+        <v>0.029826526969922</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>15</v>
@@ -3647,19 +3647,19 @@
         <v>15089</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>8791</v>
+        <v>8435</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>25497</v>
+        <v>24456</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.01449507037357961</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.008445108748333119</v>
+        <v>0.0081026454814116</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.02449259211718258</v>
+        <v>0.02349289435772106</v>
       </c>
     </row>
     <row r="46">
@@ -3676,19 +3676,19 @@
         <v>24438</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>16602</v>
+        <v>16528</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>35028</v>
+        <v>34549</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03350991686874603</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02276557412915657</v>
+        <v>0.02266383365650332</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04803105158758734</v>
+        <v>0.04737534006327996</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>10</v>
@@ -3697,19 +3697,19 @@
         <v>10731</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>5549</v>
+        <v>5468</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>19658</v>
+        <v>18718</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03442487371222169</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01779972935605053</v>
+        <v>0.01754161924211674</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0630628138134694</v>
+        <v>0.06004872554053629</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>35</v>
@@ -3718,19 +3718,19 @@
         <v>35169</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>24300</v>
+        <v>23938</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>47301</v>
+        <v>48121</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03378389685449035</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02334343543837199</v>
+        <v>0.02299542311730204</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04543883343066785</v>
+        <v>0.04622597482618915</v>
       </c>
     </row>
     <row r="47">
@@ -3747,19 +3747,19 @@
         <v>671592</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>654695</v>
+        <v>655370</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>685754</v>
+        <v>684880</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9209104127795567</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.8977396197216582</v>
+        <v>0.8986657464052467</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9403298793813527</v>
+        <v>0.939130929013713</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>264</v>
@@ -3768,19 +3768,19 @@
         <v>278548</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>266816</v>
+        <v>264251</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>289122</v>
+        <v>288397</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.8935851185633361</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.8559486581329642</v>
+        <v>0.8477178544754167</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9275047576803087</v>
+        <v>0.9251786659748352</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>903</v>
@@ -3789,19 +3789,19 @@
         <v>950141</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>930460</v>
+        <v>930675</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>968861</v>
+        <v>967634</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9127279681394576</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.8938223738379686</v>
+        <v>0.8940290764230998</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9307110671109766</v>
+        <v>0.9295328485108937</v>
       </c>
     </row>
     <row r="48">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6094</v>
+        <v>6164</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03065066186564638</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09569154522756546</v>
+        <v>0.09678374763334754</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6305</v>
+        <v>5986</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02478779585018513</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08006198538434804</v>
+        <v>0.07600755711273346</v>
       </c>
     </row>
     <row r="5">
@@ -4247,19 +4247,19 @@
         <v>4587</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10476</v>
+        <v>10923</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07202578305387947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01976444200690178</v>
+        <v>0.01981676153216054</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1644944826800387</v>
+        <v>0.1715107546897309</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4281,19 +4281,19 @@
         <v>4587</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1227</v>
+        <v>1372</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10924</v>
+        <v>11334</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05824867384969394</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01558723184922652</v>
+        <v>0.01741758045351233</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1387140214399109</v>
+        <v>0.1439200526444897</v>
       </c>
     </row>
     <row r="7">
@@ -4310,19 +4310,19 @@
         <v>57148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50438</v>
+        <v>50261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60791</v>
+        <v>60761</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8973235550804741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.791964841305741</v>
+        <v>0.7891814593622611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9545232475599534</v>
+        <v>0.9540592672253729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -4344,19 +4344,19 @@
         <v>72211</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65502</v>
+        <v>65920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75898</v>
+        <v>75817</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9169635303001209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.831769904779872</v>
+        <v>0.8370788534720134</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9637871885118403</v>
+        <v>0.962759017524864</v>
       </c>
     </row>
     <row r="8">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6243</v>
+        <v>6317</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02240506229709528</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06807852323437705</v>
+        <v>0.0688905893699413</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7177</v>
+        <v>6227</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01576619186406678</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05507877345398526</v>
+        <v>0.0477830342869906</v>
       </c>
     </row>
     <row r="10">
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4828</v>
+        <v>5083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01215972907542228</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05265394882539826</v>
+        <v>0.05542887489311363</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6029</v>
+        <v>5598</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008556665412308793</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04626885751022899</v>
+        <v>0.04295571883568915</v>
       </c>
     </row>
     <row r="11">
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7198</v>
+        <v>7267</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02258342497468097</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0784959303897956</v>
+        <v>0.07925101517642026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5919</v>
+        <v>6399</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05021107457135671</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1532951935792068</v>
+        <v>0.1657192777074189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -4616,19 +4616,19 @@
         <v>4010</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9163</v>
+        <v>10140</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03076980640979179</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007769118806185644</v>
+        <v>0.007804280480655606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07031990610749161</v>
+        <v>0.07781353903743543</v>
       </c>
     </row>
     <row r="12">
@@ -4645,19 +4645,19 @@
         <v>86457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80185</v>
+        <v>80869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89637</v>
+        <v>89614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9428517836528014</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8744521849971147</v>
+        <v>0.8819110151403446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9775330850187632</v>
+        <v>0.9772829564465976</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -4666,7 +4666,7 @@
         <v>36673</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32693</v>
+        <v>32213</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>38612</v>
@@ -4675,7 +4675,7 @@
         <v>0.9497889254286432</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8467048064207932</v>
+        <v>0.8342807222925794</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -4687,19 +4687,19 @@
         <v>123130</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>117067</v>
+        <v>116329</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>127244</v>
+        <v>127212</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9449073363138326</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8983837866907902</v>
+        <v>0.8927195069971403</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9764787121382074</v>
+        <v>0.976230043495255</v>
       </c>
     </row>
     <row r="13">
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3972</v>
+        <v>4946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01050404830647119</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04303957292022577</v>
+        <v>0.05359151568258919</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4538</v>
+        <v>5077</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006479105526370549</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03033212922279395</v>
+        <v>0.03393684253944505</v>
       </c>
     </row>
     <row r="15">
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4776</v>
+        <v>4606</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01572682864527705</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0833065105343317</v>
+        <v>0.08034441780207316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4525</v>
+        <v>5468</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006026208521022419</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03024264613290595</v>
+        <v>0.03655160111536124</v>
       </c>
     </row>
     <row r="17">
@@ -4964,7 +4964,7 @@
         <v>91313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88310</v>
+        <v>87336</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>92282</v>
@@ -4973,7 +4973,7 @@
         <v>0.9894959516935288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9569604270797744</v>
+        <v>0.946408484317411</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>56426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52552</v>
+        <v>52722</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>57328</v>
@@ -4994,7 +4994,7 @@
         <v>0.9842731713547229</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9166934894656664</v>
+        <v>0.9196555821979269</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>147739</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143026</v>
+        <v>143867</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>149610</v>
@@ -5015,7 +5015,7 @@
         <v>0.987494685952607</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9559905354756315</v>
+        <v>0.9616133868145926</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9251</v>
+        <v>8421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05559299838251747</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1971045521227365</v>
+        <v>0.1794354021984769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7942</v>
+        <v>9302</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01899952721563544</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05783284037124237</v>
+        <v>0.06773424788933446</v>
       </c>
     </row>
     <row r="20">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4804</v>
+        <v>5235</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01030628485046657</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05314336464241769</v>
+        <v>0.05791163823974453</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4718</v>
+        <v>4629</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006783997058734344</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03435896739649963</v>
+        <v>0.03371066925744411</v>
       </c>
     </row>
     <row r="22">
@@ -5283,7 +5283,7 @@
         <v>89460</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85588</v>
+        <v>85157</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>90392</v>
@@ -5292,7 +5292,7 @@
         <v>0.9896937151495334</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9468566353575824</v>
+        <v>0.9420883617602549</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -5304,7 +5304,7 @@
         <v>44323</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37681</v>
+        <v>38511</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>46932</v>
@@ -5313,7 +5313,7 @@
         <v>0.9444070016174825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8028954478772643</v>
+        <v>0.8205645978015231</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -5325,19 +5325,19 @@
         <v>133783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>127988</v>
+        <v>126111</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136388</v>
+        <v>136392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9742164757256302</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9320128111125257</v>
+        <v>0.9183461106237621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9931828939375721</v>
+        <v>0.9932159260935466</v>
       </c>
     </row>
     <row r="23">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4705</v>
+        <v>4513</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02953206680816312</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1566921380928576</v>
+        <v>0.1502791049977586</v>
       </c>
     </row>
     <row r="25">
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5073</v>
+        <v>4788</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03428847446826487</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1810975699362466</v>
+        <v>0.1709163253885669</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4391</v>
+        <v>5312</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03198456632174238</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1462190788935635</v>
+        <v>0.1768877636113611</v>
       </c>
     </row>
     <row r="26">
@@ -5602,7 +5602,7 @@
         <v>27052</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22939</v>
+        <v>23224</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>28012</v>
@@ -5611,7 +5611,7 @@
         <v>0.9657115255317351</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8189024300637522</v>
+        <v>0.8290836746114316</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5644,7 +5644,7 @@
         <v>28183</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>24269</v>
+        <v>23385</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>30030</v>
@@ -5653,7 +5653,7 @@
         <v>0.9384833668700945</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8081744458460742</v>
+        <v>0.7787227139109779</v>
       </c>
       <c r="W27" s="6" t="n">
         <v>1</v>
@@ -5748,19 +5748,19 @@
         <v>11004</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5988</v>
+        <v>5734</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18236</v>
+        <v>17209</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2494660402004749</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1357472649165011</v>
+        <v>0.1299872278644907</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4134226917624927</v>
+        <v>0.3901375766383179</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -5769,19 +5769,19 @@
         <v>7588</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3839</v>
+        <v>3754</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11441</v>
+        <v>11481</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4458261385026016</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2255256523813423</v>
+        <v>0.2205764421947044</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6721906949640294</v>
+        <v>0.6745261091163889</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -5790,19 +5790,19 @@
         <v>18592</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>11658</v>
+        <v>11747</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26601</v>
+        <v>26321</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3041383340963708</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1907109242318235</v>
+        <v>0.1921638076929003</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.435150642882114</v>
+        <v>0.430575294434042</v>
       </c>
     </row>
     <row r="30">
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5048</v>
+        <v>6319</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02282510084827275</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1144364154163329</v>
+        <v>0.1432461198716049</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5136</v>
+        <v>5152</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01646993687875709</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08401727361349835</v>
+        <v>0.08427438618590639</v>
       </c>
     </row>
     <row r="31">
@@ -5929,19 +5929,19 @@
         <v>32099</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24106</v>
+        <v>25723</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36885</v>
+        <v>37456</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7277088589512524</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5464887579007794</v>
+        <v>0.5831649548970401</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8362122357832583</v>
+        <v>0.8491600448018243</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -5950,19 +5950,19 @@
         <v>9433</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5580</v>
+        <v>5540</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13182</v>
+        <v>13267</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5541738614973983</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3278093050359707</v>
+        <v>0.3254738908836111</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7744743476186576</v>
+        <v>0.7794235578052956</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -5971,19 +5971,19 @@
         <v>41532</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32876</v>
+        <v>33809</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48408</v>
+        <v>48674</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6793917290248721</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5377896716289015</v>
+        <v>0.5530574963980986</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7918668663601306</v>
+        <v>0.7962237318210946</v>
       </c>
     </row>
     <row r="33">
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6046</v>
+        <v>7092</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.004530060793098605</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02471796093482339</v>
+        <v>0.02899165118361706</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5949</v>
+        <v>5517</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002627024929259316</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01410256429158766</v>
+        <v>0.01307831953937594</v>
       </c>
     </row>
     <row r="35">
@@ -6154,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4654</v>
+        <v>5201</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005243879829054028</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02626239948063406</v>
+        <v>0.02935395083708039</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4662</v>
+        <v>4636</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.002202904516327102</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01105174448678467</v>
+        <v>0.01099041878121028</v>
       </c>
     </row>
     <row r="36">
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8060</v>
+        <v>7576</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008983208835773618</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03295011733973022</v>
+        <v>0.03097101990416419</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6728</v>
+        <v>5994</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01102396743745247</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03796907906889559</v>
+        <v>0.03382501312823916</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>4</v>
@@ -6243,19 +6243,19 @@
         <v>4151</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10184</v>
+        <v>10447</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009840512299415863</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002559033892452052</v>
+        <v>0.002567033591252908</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02414278733517594</v>
+        <v>0.02476783862806153</v>
       </c>
     </row>
     <row r="37">
@@ -6272,7 +6272,7 @@
         <v>241306</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>235744</v>
+        <v>235688</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>243532</v>
@@ -6281,10 +6281,10 @@
         <v>0.9864867303711278</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9637523872928029</v>
+        <v>0.9635213138438937</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9955896152789168</v>
+        <v>0.9955892813334649</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>171</v>
@@ -6293,19 +6293,19 @@
         <v>174315</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>169021</v>
+        <v>169421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>176267</v>
+        <v>176268</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9837321527334935</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9538519312125855</v>
+        <v>0.9561090811710025</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9947440173786771</v>
+        <v>0.994749377488832</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>378</v>
@@ -6314,19 +6314,19 @@
         <v>415621</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>409207</v>
+        <v>409257</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>419639</v>
+        <v>419691</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9853295582549977</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9701234474603397</v>
+        <v>0.9702432505737484</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9948550773787593</v>
+        <v>0.9949778700237314</v>
       </c>
     </row>
     <row r="38">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6277</v>
+        <v>7087</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01978097970617664</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06088350666832444</v>
+        <v>0.06873732557746173</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -6439,19 +6439,19 @@
         <v>4051</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1016</v>
+        <v>1530</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9241</v>
+        <v>9474</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.09575516774311904</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02402199968830427</v>
+        <v>0.03616814859400941</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2184064656576564</v>
+        <v>0.2239276028262166</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>6</v>
@@ -6460,19 +6460,19 @@
         <v>6091</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2139</v>
+        <v>2163</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>12408</v>
+        <v>12373</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04188749472768972</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01470737796789566</v>
+        <v>0.01487793783099092</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0853324748769838</v>
+        <v>0.08508805587822944</v>
       </c>
     </row>
     <row r="40">
@@ -6539,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4775</v>
+        <v>4690</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008931593047160217</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04631554273377632</v>
+        <v>0.04548954766429764</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4389</v>
+        <v>4983</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02353520046242667</v>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1037303199640372</v>
+        <v>0.1177639786177156</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5957</v>
+        <v>6668</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01318086342484282</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04096701630044225</v>
+        <v>0.0458561127949767</v>
       </c>
     </row>
     <row r="42">
@@ -6607,19 +6607,19 @@
         <v>100139</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>95083</v>
+        <v>95201</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>102182</v>
+        <v>102188</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9712874272466632</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9222459496647263</v>
+        <v>0.9233957262314403</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9911098831387812</v>
+        <v>0.991168403256278</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>34</v>
@@ -6628,19 +6628,19 @@
         <v>37263</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31794</v>
+        <v>32063</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>40284</v>
+        <v>40370</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8807096317944543</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.7514560953520321</v>
+        <v>0.7578008043412771</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9521266257949415</v>
+        <v>0.9541435472283083</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>130</v>
@@ -6649,19 +6649,19 @@
         <v>137402</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>130923</v>
+        <v>130436</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>141510</v>
+        <v>141496</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9449316418474675</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9003779969174877</v>
+        <v>0.8970272233791011</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9731859817454324</v>
+        <v>0.9730898115075103</v>
       </c>
     </row>
     <row r="43">
@@ -6753,19 +6753,19 @@
         <v>19127</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11510</v>
+        <v>11802</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>29922</v>
+        <v>29759</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02523765764538289</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01518707452054831</v>
+        <v>0.01557176624463644</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03948061213483218</v>
+        <v>0.03926539363273831</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>15</v>
@@ -6774,19 +6774,19 @@
         <v>15136</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>8645</v>
+        <v>7896</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>23338</v>
+        <v>23249</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03817476126463098</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02180532415677143</v>
+        <v>0.01991435517335667</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.05886190997776118</v>
+        <v>0.05863704809755268</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>33</v>
@@ -6795,19 +6795,19 @@
         <v>34263</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>24165</v>
+        <v>23937</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>46887</v>
+        <v>48177</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02968104549182696</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02093302400013279</v>
+        <v>0.02073624631060764</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04061663910178873</v>
+        <v>0.0417343448439667</v>
       </c>
     </row>
     <row r="45">
@@ -6824,19 +6824,19 @@
         <v>3082</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>10195</v>
+        <v>8325</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.004066987703741184</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001267538696980981</v>
+        <v>0.001267060867800753</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01345129296161529</v>
+        <v>0.01098380907229866</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>4660</v>
+        <v>4666</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.002343627688716554</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01175381633391922</v>
+        <v>0.01176780524162382</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4</v>
@@ -6866,19 +6866,19 @@
         <v>4012</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>10295</v>
+        <v>9750</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.003475081109253138</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0008773140432211948</v>
+        <v>0.0008631251200823913</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.008917913523132133</v>
+        <v>0.008446220264430876</v>
       </c>
     </row>
     <row r="46">
@@ -6895,19 +6895,19 @@
         <v>10708</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>5215</v>
+        <v>5941</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18773</v>
+        <v>19836</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01412837536745308</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006880654465889987</v>
+        <v>0.007838231903445956</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02477025851757857</v>
+        <v>0.0261732695994813</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -6916,19 +6916,19 @@
         <v>5790</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>11750</v>
+        <v>12731</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01460228829059688</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.006980320840842502</v>
+        <v>0.00698388461145139</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02963674859917787</v>
+        <v>0.03210960625003393</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>16</v>
@@ -6937,19 +6937,19 @@
         <v>16497</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9875</v>
+        <v>9749</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>25965</v>
+        <v>25849</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01429114587505239</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.008554304157805254</v>
+        <v>0.008445059253619996</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02249239885038332</v>
+        <v>0.02239252099714745</v>
       </c>
     </row>
     <row r="47">
@@ -6966,19 +6966,19 @@
         <v>724974</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>712312</v>
+        <v>713158</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>735154</v>
+        <v>735314</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.9565669792834228</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.9398608484702783</v>
+        <v>0.9409775822176837</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.9699998558473335</v>
+        <v>0.9702107761475169</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>369</v>
@@ -6987,19 +6987,19 @@
         <v>374628</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>365008</v>
+        <v>365170</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>382248</v>
+        <v>383107</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.9448793227560556</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.9206173365991963</v>
+        <v>0.9210253227985549</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.9640997589818088</v>
+        <v>0.9662665213908218</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1040</v>
@@ -7008,19 +7008,19 @@
         <v>1099601</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1084922</v>
+        <v>1083816</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1112922</v>
+        <v>1111357</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.9525527275238675</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.9398366335285938</v>
+        <v>0.9388786499486981</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.9640919640670513</v>
+        <v>0.9627363764714983</v>
       </c>
     </row>
     <row r="48">
